--- a/DatabaseInit/XLSDIR/bookInformation.xlsx
+++ b/DatabaseInit/XLSDIR/bookInformation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>bookname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,15 +28,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d's'f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsf</t>
+    <t>毛概</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP12324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A23132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x213213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2343232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1243245</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,12 +413,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -409,36 +434,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>3232</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2323</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>4343</v>
-      </c>
-      <c r="B4">
-        <v>43543</v>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseInit/XLSDIR/bookInformation.xlsx
+++ b/DatabaseInit/XLSDIR/bookInformation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
   <si>
     <t>bookname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,18 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毛概</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TP123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,6 +50,192 @@
   <si>
     <t>0x1243245</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP24525</t>
+  </si>
+  <si>
+    <t>TP36726</t>
+  </si>
+  <si>
+    <t>A23133</t>
+  </si>
+  <si>
+    <t>TP48927</t>
+  </si>
+  <si>
+    <t>TP61128</t>
+  </si>
+  <si>
+    <t>A23134</t>
+  </si>
+  <si>
+    <t>TP73329</t>
+  </si>
+  <si>
+    <t>TP85530</t>
+  </si>
+  <si>
+    <t>A23135</t>
+  </si>
+  <si>
+    <t>TP97731</t>
+  </si>
+  <si>
+    <t>TP109932</t>
+  </si>
+  <si>
+    <t>A23136</t>
+  </si>
+  <si>
+    <t>TP122133</t>
+  </si>
+  <si>
+    <t>TP134334</t>
+  </si>
+  <si>
+    <t>A23137</t>
+  </si>
+  <si>
+    <t>TP146535</t>
+  </si>
+  <si>
+    <t>TP158736</t>
+  </si>
+  <si>
+    <t>A23138</t>
+  </si>
+  <si>
+    <t>TP170937</t>
+  </si>
+  <si>
+    <t>TP183138</t>
+  </si>
+  <si>
+    <t>A23139</t>
+  </si>
+  <si>
+    <t>TP195339</t>
+  </si>
+  <si>
+    <t>TP207540</t>
+  </si>
+  <si>
+    <t>A23140</t>
+  </si>
+  <si>
+    <t>TP219741</t>
+  </si>
+  <si>
+    <t>毛概1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓论2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛概2</t>
+  </si>
+  <si>
+    <t>邓论3</t>
+  </si>
+  <si>
+    <t>旅游4</t>
+  </si>
+  <si>
+    <t>毛概3</t>
+  </si>
+  <si>
+    <t>邓论4</t>
+  </si>
+  <si>
+    <t>旅游5</t>
+  </si>
+  <si>
+    <t>毛概4</t>
+  </si>
+  <si>
+    <t>邓论5</t>
+  </si>
+  <si>
+    <t>旅游6</t>
+  </si>
+  <si>
+    <t>毛概5</t>
+  </si>
+  <si>
+    <t>邓论6</t>
+  </si>
+  <si>
+    <t>旅游7</t>
+  </si>
+  <si>
+    <t>毛概6</t>
+  </si>
+  <si>
+    <t>邓论7</t>
+  </si>
+  <si>
+    <t>旅游8</t>
+  </si>
+  <si>
+    <t>毛概7</t>
+  </si>
+  <si>
+    <t>邓论8</t>
+  </si>
+  <si>
+    <t>旅游9</t>
+  </si>
+  <si>
+    <t>毛概8</t>
+  </si>
+  <si>
+    <t>邓论9</t>
+  </si>
+  <si>
+    <t>旅游10</t>
+  </si>
+  <si>
+    <t>毛概9</t>
+  </si>
+  <si>
+    <t>邓论10</t>
+  </si>
+  <si>
+    <t>旅游11</t>
+  </si>
+  <si>
+    <t>毛概10</t>
+  </si>
+  <si>
+    <t>邓论11</t>
+  </si>
+  <si>
+    <t>TP231942</t>
+  </si>
+  <si>
+    <t>旅游12</t>
+  </si>
+  <si>
+    <t>A23141</t>
+  </si>
+  <si>
+    <t>毛概11</t>
+  </si>
+  <si>
+    <t>TP244143</t>
+  </si>
+  <si>
+    <t>邓论12</t>
+  </si>
+  <si>
+    <t>TP256344</t>
   </si>
 </sst>
 </file>
@@ -410,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -435,35 +609,574 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
